--- a/Fnt-FDE-data.xlsx
+++ b/Fnt-FDE-data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/thesis-graph-jupyter/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAE3AA9-BA07-F84F-A207-65824B9A3AA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A452FA-564F-3A4B-87A4-61D5EB17DDC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5540" yWindow="2360" windowWidth="18480" windowHeight="12920" xr2:uid="{5194C5C6-1182-2349-A679-D51FF5F31854}"/>
+    <workbookView xWindow="1540" yWindow="1080" windowWidth="10300" windowHeight="12920" activeTab="1" xr2:uid="{5194C5C6-1182-2349-A679-D51FF5F31854}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cl" sheetId="1" r:id="rId1"/>
+    <sheet name="HCl" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>supermolecule</t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t>active6intermediate</t>
+  </si>
+  <si>
+    <t>supermolecule_hcl</t>
+  </si>
+  <si>
+    <t>Active6_hcl</t>
   </si>
 </sst>
 </file>
@@ -402,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC5904D-B184-B04E-8861-84F500A95626}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,4 +591,85 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6594B9F6-0FFF-C442-AFFD-AE30FDB90ABB}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>192.91075180000001</v>
+      </c>
+      <c r="C2">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>192.87945920000001</v>
+      </c>
+      <c r="C3">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>192.93524170000001</v>
+      </c>
+      <c r="C4">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>192.861772</v>
+      </c>
+      <c r="C5">
+        <v>193.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>192.91347289999999</v>
+      </c>
+      <c r="C6">
+        <v>193.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fnt-FDE-data.xlsx
+++ b/Fnt-FDE-data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A452FA-564F-3A4B-87A4-61D5EB17DDC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28FAE50-BB59-2A4F-BF46-06381123FC1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="1080" windowWidth="10300" windowHeight="12920" activeTab="1" xr2:uid="{5194C5C6-1182-2349-A679-D51FF5F31854}"/>
+    <workbookView xWindow="1280" yWindow="1820" windowWidth="20120" windowHeight="12920" activeTab="1" xr2:uid="{5194C5C6-1182-2349-A679-D51FF5F31854}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cl" sheetId="1" r:id="rId1"/>
-    <sheet name="HCl" sheetId="2" r:id="rId2"/>
+    <sheet name="HCl" sheetId="2" r:id="rId1"/>
+    <sheet name="Cl" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>supermolecule</t>
   </si>
@@ -56,16 +56,77 @@
   </si>
   <si>
     <t>Active6_hcl</t>
+  </si>
+  <si>
+    <t>Active6_hcl_2s</t>
+  </si>
+  <si>
+    <t>Active6_hcl_1s</t>
+  </si>
+  <si>
+    <t>supermolecule_hcl_1s</t>
+  </si>
+  <si>
+    <t>Active0_hcl</t>
+  </si>
+  <si>
+    <t>Active0_hcl_2s</t>
+  </si>
+  <si>
+    <t>Active0_hcl_1s</t>
+  </si>
+  <si>
+    <t>supermolecule_hcl_2s</t>
+  </si>
+  <si>
+    <t>Active6nots_2s</t>
+  </si>
+  <si>
+    <t>Active6nots_1s</t>
+  </si>
+  <si>
+    <t>supermolecule_1s</t>
+  </si>
+  <si>
+    <t>supermolecule_2s</t>
+  </si>
+  <si>
+    <t>Noinactivenots_2s</t>
+  </si>
+  <si>
+    <t>Noinactivenots_1s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -91,8 +152,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,187 +470,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC5904D-B184-B04E-8861-84F500A95626}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6594B9F6-0FFF-C442-AFFD-AE30FDB90ABB}">
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>183.892</v>
-      </c>
-      <c r="C2">
-        <v>183.72900000000001</v>
+      <c r="B2" s="2">
+        <v>192.804</v>
+      </c>
+      <c r="C2" s="2">
+        <v>193.1</v>
       </c>
       <c r="D2">
-        <v>183.72900000000001</v>
-      </c>
-      <c r="E2">
-        <v>183.13</v>
-      </c>
-      <c r="F2">
-        <v>183.34800000000001</v>
+        <v>193.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>253.76900000000001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>254.1</v>
       </c>
       <c r="G2">
-        <v>183.13</v>
-      </c>
-      <c r="H2">
-        <v>184.273</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>254.1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2754.2449999999999</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2754.6289999999999</v>
+      </c>
+      <c r="J2">
+        <v>2754.7919999999999</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>184.05500000000001</v>
-      </c>
-      <c r="C3">
-        <v>183.91900000000001</v>
+      <c r="B3" s="2">
+        <v>192.773</v>
+      </c>
+      <c r="C3" s="2">
+        <v>193.1</v>
       </c>
       <c r="D3">
-        <v>183.946</v>
-      </c>
-      <c r="E3">
-        <v>183.78299999999999</v>
-      </c>
-      <c r="F3">
-        <v>183.89</v>
+        <v>193.1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>253.73699999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>254.077</v>
       </c>
       <c r="G3">
-        <v>183.67400000000001</v>
-      </c>
-      <c r="H3">
-        <v>184.273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>254.1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2754.2130000000002</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2754.605</v>
+      </c>
+      <c r="J3">
+        <v>2754.7919999999999</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>184.11</v>
-      </c>
-      <c r="C4">
-        <v>184.1</v>
+      <c r="B4" s="2">
+        <v>192.82900000000001</v>
+      </c>
+      <c r="C4" s="2">
+        <v>193.02</v>
       </c>
       <c r="D4">
-        <v>184.1</v>
-      </c>
-      <c r="E4">
-        <v>183.89099999999999</v>
-      </c>
-      <c r="F4">
-        <v>183.92</v>
+        <v>193.1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>253.79300000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>253.98400000000001</v>
       </c>
       <c r="G4">
-        <v>183.78299999999999</v>
-      </c>
-      <c r="H4">
-        <v>184.273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>254.1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2754.268</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2754.511</v>
+      </c>
+      <c r="J4">
+        <v>2754.7919999999999</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>184.08199999999999</v>
-      </c>
-      <c r="C5">
-        <v>184.05500000000001</v>
+      <c r="B5" s="2">
+        <v>192.755</v>
+      </c>
+      <c r="C5" s="2">
+        <v>193.01</v>
       </c>
       <c r="D5">
-        <v>184.08199999999999</v>
-      </c>
-      <c r="E5">
-        <v>184</v>
-      </c>
-      <c r="F5">
-        <v>184</v>
+        <v>193.1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>253.72</v>
+      </c>
+      <c r="F5" s="2">
+        <v>253.97399999999999</v>
       </c>
       <c r="G5">
-        <v>183.892</v>
-      </c>
-      <c r="H5">
-        <v>184.273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>254.1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2754.1950000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2754.5</v>
+      </c>
+      <c r="J5">
+        <v>2754.7919999999999</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>184.21799999999999</v>
-      </c>
-      <c r="C6">
-        <v>184.16399999999999</v>
+      <c r="B6" s="2">
+        <v>192.80699999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>192.90299999999999</v>
       </c>
       <c r="D6">
-        <v>184.21799999999999</v>
-      </c>
-      <c r="E6">
-        <v>184</v>
-      </c>
-      <c r="F6">
-        <v>184.03</v>
+        <v>193.1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>253.77099999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>253.86699999999999</v>
       </c>
       <c r="G6">
-        <v>183.892</v>
-      </c>
-      <c r="H6">
-        <v>184.273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>254.1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2754.2460000000001</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2754.393</v>
+      </c>
+      <c r="J6">
+        <v>2754.7919999999999</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
-      <c r="E7">
-        <v>184.11</v>
-      </c>
-      <c r="F7">
-        <v>184.11</v>
+      <c r="C7" s="2">
+        <v>193.07400000000001</v>
+      </c>
+      <c r="D7">
+        <v>193.1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>254.03899999999999</v>
       </c>
       <c r="G7">
-        <v>183.94499999999999</v>
-      </c>
-      <c r="H7">
-        <v>184.273</v>
-      </c>
+        <v>254.1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2754.5650000000001</v>
+      </c>
+      <c r="J7">
+        <v>2754.7919999999999</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="U7" s="2"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Z7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -594,79 +760,306 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6594B9F6-0FFF-C442-AFFD-AE30FDB90ABB}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC5904D-B184-B04E-8861-84F500A95626}">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>9</v>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>192.91075180000001</v>
+      <c r="B2" s="2">
+        <v>183.786</v>
       </c>
       <c r="C2">
-        <v>193.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183.72900000000001</v>
+      </c>
+      <c r="D2">
+        <v>183.72900000000001</v>
+      </c>
+      <c r="E2">
+        <v>183.13</v>
+      </c>
+      <c r="F2" s="2">
+        <v>183.25800000000001</v>
+      </c>
+      <c r="G2">
+        <v>183.13</v>
+      </c>
+      <c r="H2">
+        <v>184.453</v>
+      </c>
+      <c r="I2" s="2">
+        <v>244.72300000000001</v>
+      </c>
+      <c r="J2" s="2">
+        <v>244.19499999999999</v>
+      </c>
+      <c r="K2">
+        <v>245.381</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2745.183</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2744.692</v>
+      </c>
+      <c r="N2">
+        <v>2745.9929999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>192.87945920000001</v>
+      <c r="B3" s="2">
+        <v>183.90100000000001</v>
       </c>
       <c r="C3">
-        <v>193.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>183.91900000000001</v>
+      </c>
+      <c r="D3">
+        <v>183.946</v>
+      </c>
+      <c r="E3">
+        <v>183.78299999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>183.79900000000001</v>
+      </c>
+      <c r="G3">
+        <v>183.67400000000001</v>
+      </c>
+      <c r="H3">
+        <v>184.453</v>
+      </c>
+      <c r="I3" s="2">
+        <v>244.83799999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <v>244.73599999999999</v>
+      </c>
+      <c r="K3">
+        <v>245.381</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2745.299</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2745.2289999999998</v>
+      </c>
+      <c r="N3">
+        <v>2745.9929999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4">
-        <v>192.93524170000001</v>
+      <c r="B4" s="2">
+        <v>184.017</v>
       </c>
       <c r="C4">
-        <v>193.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184.1</v>
+      </c>
+      <c r="D4">
+        <v>184.1</v>
+      </c>
+      <c r="E4">
+        <v>183.89099999999999</v>
+      </c>
+      <c r="F4" s="2">
+        <v>183.82599999999999</v>
+      </c>
+      <c r="G4">
+        <v>183.78299999999999</v>
+      </c>
+      <c r="H4">
+        <v>184.453</v>
+      </c>
+      <c r="I4" s="2">
+        <v>244.95400000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>244.76300000000001</v>
+      </c>
+      <c r="K4">
+        <v>245.381</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2745.4140000000002</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2745.2570000000001</v>
+      </c>
+      <c r="N4">
+        <v>2745.9929999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
-      <c r="B5">
-        <v>192.861772</v>
+      <c r="B5" s="2">
+        <v>183.98699999999999</v>
       </c>
       <c r="C5">
-        <v>193.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184.05500000000001</v>
+      </c>
+      <c r="D5">
+        <v>184.08199999999999</v>
+      </c>
+      <c r="E5">
+        <v>184</v>
+      </c>
+      <c r="F5" s="2">
+        <v>183.875</v>
+      </c>
+      <c r="G5">
+        <v>183.892</v>
+      </c>
+      <c r="H5">
+        <v>184.453</v>
+      </c>
+      <c r="I5" s="2">
+        <v>244.92400000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <v>244.81200000000001</v>
+      </c>
+      <c r="K5">
+        <v>245.381</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2745.384</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2745.306</v>
+      </c>
+      <c r="N5">
+        <v>2745.9929999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
-      <c r="B6">
-        <v>192.91347289999999</v>
+      <c r="B6" s="2">
+        <v>184.065</v>
       </c>
       <c r="C6">
-        <v>193.1</v>
+        <v>184.16399999999999</v>
+      </c>
+      <c r="D6">
+        <v>184.21799999999999</v>
+      </c>
+      <c r="E6">
+        <v>184</v>
+      </c>
+      <c r="F6" s="2">
+        <v>183.922</v>
+      </c>
+      <c r="G6">
+        <v>183.892</v>
+      </c>
+      <c r="H6">
+        <v>184.453</v>
+      </c>
+      <c r="I6" s="2">
+        <v>245.00200000000001</v>
+      </c>
+      <c r="J6" s="2">
+        <v>244.85900000000001</v>
+      </c>
+      <c r="K6">
+        <v>245.381</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2745.462</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2745.3530000000001</v>
+      </c>
+      <c r="N6">
+        <v>2745.9929999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>184.11</v>
+      </c>
+      <c r="F7" s="2">
+        <v>183.99799999999999</v>
+      </c>
+      <c r="G7">
+        <v>183.94499999999999</v>
+      </c>
+      <c r="H7">
+        <v>184.453</v>
+      </c>
+      <c r="J7" s="2">
+        <v>244.935</v>
+      </c>
+      <c r="K7">
+        <v>245.381</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2745.4279999999999</v>
+      </c>
+      <c r="N7">
+        <v>2745.9929999999999</v>
       </c>
     </row>
   </sheetData>
